--- a/Pre Requirments and Designs/ScrumBoard -Genaral Insurence.xlsx
+++ b/Pre Requirments and Designs/ScrumBoard -Genaral Insurence.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31484a60e9d3788b/Documents/LTI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LTI - PROJECT\git project\Pre Requirments and Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F49C71-D73F-41A5-B4A0-50C0939A6FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BDD8D-1160-4063-B12D-E23912DA05F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CA73387F-0649-4802-93B7-99EAE9B29987}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CA73387F-0649-4802-93B7-99EAE9B29987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>User Story</t>
   </si>
@@ -94,31 +92,16 @@
     <t>SaiSindhu Nomula</t>
   </si>
   <si>
-    <t xml:space="preserve">1.vehicle details                          2.registration details                     3.Login                                                  4.policy Table                                    5.Claim history                               6. plans                                                 7.  Claim reasons                          8.vehicle types                                 9. Insurence Details  </t>
-  </si>
-  <si>
-    <t>overall database design should be verified</t>
-  </si>
-  <si>
     <t xml:space="preserve">Database Creation and connection </t>
   </si>
   <si>
     <t>Create the database and connect it to the backend using EF-DB first method</t>
   </si>
   <si>
-    <t xml:space="preserve">creation and connection is in progress </t>
-  </si>
-  <si>
     <t xml:space="preserve">Home Page </t>
   </si>
   <si>
     <t xml:space="preserve">1.Develop a home page component in the angualar (frontend)                                     2. Develop the services, repositories, Controllers , Interfaces etc which are required for home page (backend)                                    3 . Integrate the frontend backend </t>
-  </si>
-  <si>
-    <t xml:space="preserve">backend and integration is in progress </t>
-  </si>
-  <si>
-    <t xml:space="preserve">frontend </t>
   </si>
   <si>
     <t>Registration Page[buy insurance]</t>
@@ -326,6 +309,27 @@
   </si>
   <si>
     <t>Calculate premium -----    4 Wheeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>front end and backend done</t>
+  </si>
+  <si>
+    <t>front end done</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>AAKASH PATEL</t>
+  </si>
+  <si>
+    <t>MangalaVamsi</t>
   </si>
 </sst>
 </file>
@@ -1081,24 +1085,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056963-A1EC-47EB-8D9F-A593C44091E2}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1107,9 +1111,9 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>7</v>
@@ -1126,9 +1130,9 @@
       <c r="F2" s="32"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1137,7 +1141,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1169,17 +1173,15 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="39" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="39"/>
       <c r="F5" s="37" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1218,15 +1220,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="28"/>
@@ -1235,46 +1237,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="22"/>
       <c r="E10" s="28"/>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="22"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="22"/>
@@ -1284,37 +1286,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="22"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="22"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F5:F8"/>
@@ -1331,24 +1337,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9037ADD6-71D3-420F-8EA2-AE6AA5F1D0AB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1357,26 +1363,26 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1385,7 +1391,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,60 +1411,68 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="23"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" s="22"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="22"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G7" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="48"/>
@@ -1468,18 +1482,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
       <c r="D9" s="48"/>
       <c r="E9" s="43"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="26"/>
       <c r="C10" s="5"/>
@@ -1488,7 +1500,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="26"/>
       <c r="C11" s="5"/>
@@ -1497,7 +1509,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="26"/>
       <c r="C12" s="5"/>
@@ -1506,7 +1518,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="26"/>
       <c r="C13" s="5"/>
@@ -1515,7 +1527,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="27"/>
       <c r="C14" s="14"/>
@@ -1543,24 +1555,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4E6B1B-795E-42B1-A3AF-7BFB28B4EC32}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1569,24 +1581,24 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1595,7 +1607,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,82 +1630,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="21"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="21"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="21"/>
       <c r="E8" s="20"/>
       <c r="F8" s="6"/>
       <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
       <c r="F9" s="6"/>
       <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="5"/>
@@ -1702,7 +1720,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="5"/>
@@ -1711,7 +1729,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="5"/>
@@ -1720,7 +1738,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="5"/>
@@ -1729,7 +1747,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="5"/>
@@ -1754,15 +1772,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100320840752D23B9488A4107F0AA110EE6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a93cbd9f81ed4d91930bf9498cef651e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4f3ff0de-458d-462e-9866-c1ac0c11f0c0" xmlns:ns4="4b3954d8-ed63-4e76-97e5-a038cab6f4ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ab172cc3280f3688a5142fe93cbf096" ns3:_="" ns4:_="">
     <xsd:import namespace="4f3ff0de-458d-462e-9866-c1ac0c11f0c0"/>
@@ -1973,6 +1982,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14662CBF-0C05-4B2D-BA1E-C7F4A1B0225A}">
   <ds:schemaRefs>
@@ -1991,14 +2009,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D517D1CD-ABBA-4FC0-8425-EECE1CBE0D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{249A8BEC-89D4-452E-A890-09E1736497F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2015,4 +2025,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D517D1CD-ABBA-4FC0-8425-EECE1CBE0D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>